--- a/trunk/CASOS DE USO/CasosDeUso_V(1.0).xlsx
+++ b/trunk/CASOS DE USO/CasosDeUso_V(1.0).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="8640" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="8640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso " sheetId="3" r:id="rId1"/>
@@ -1638,8 +1638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2770,8 +2770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
